--- a/biology/Médecine/Jesse_William_Lazear/Jesse_William_Lazear.xlsx
+++ b/biology/Médecine/Jesse_William_Lazear/Jesse_William_Lazear.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jesse William Lazear est un médecin américain, né le 2 mai 1866 à Baltimore et mort le 26 septembre 1900 à Quemados à Cuba à la suite de l'exposition volontaire à la fièvre jaune dont les mécanismes de transmission était débattus à l'époque.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de William et de Charlotte née Pettigrew. Il obtient son Bachelor of Arts en 1889 à l'université Johns-Hopkins et son Medical Doctorat en 1892 à l’école de médecine et de chirurgie de l’université Columbia. Il effectue sa spécialisation à Paris à l’Institut Pasteur. Il se marie en 1896 avec Mabel Houston dont il aura deux enfants.
 Il est médecin à l’hôpital Johns-Hopkins de Baltimore en 1895. Il y commence l’étude du parasite responsable du paludisme. En 1900, il est chirurgien-assistant à Columbia Barracks (Quemados) pour l’armée américaine.
